--- a/legislator/property/output/normal/江惠貞_2012-04-27_財產申報表_tmpf6f41.xlsx
+++ b/legislator/property/output/normal/江惠貞_2012-04-27_財產申報表_tmpf6f41.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="116">
   <si>
     <t>土地坐落</t>
   </si>
@@ -237,6 +237,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -255,10 +258,10 @@
     <t>聯華電子股份有限公司</t>
   </si>
   <si>
-    <t>鴻海精密工業股份有限公 司</t>
-  </si>
-  <si>
-    <t>台灣積體電路製造股份有 限公司</t>
+    <t>鴻海精密工業股份有限公司</t>
+  </si>
+  <si>
+    <t>台灣積體電路製造股份有限公司</t>
   </si>
   <si>
     <t>大同股份有限公司</t>
@@ -267,28 +270,31 @@
     <t>國泰建設股份有限公司</t>
   </si>
   <si>
-    <t>彰化商業銀行股份有限公 司</t>
-  </si>
-  <si>
-    <t>中華票券金融股份有限公 司</t>
-  </si>
-  <si>
-    <t>安泰商業銀行股份有限公 司</t>
+    <t>彰化商業銀行股份有限公司</t>
+  </si>
+  <si>
+    <t>中華票券金融股份有限公司</t>
+  </si>
+  <si>
+    <t>安泰商業銀行股份有限公司</t>
   </si>
   <si>
     <t>熒茂光學股份有限公司</t>
   </si>
   <si>
-    <t>台灣塑膠工業股份有限公 司</t>
-  </si>
-  <si>
-    <t>裕隆汽車製造股份有限公 司</t>
+    <t>台灣塑膠工業股份有限公司</t>
+  </si>
+  <si>
+    <t>裕隆汽車製造股份有限公司</t>
   </si>
   <si>
     <t>國賓大飯店股份有限公司</t>
   </si>
   <si>
     <t>〉工惠貞</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-27</t>
@@ -1479,13 +1485,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>66</v>
       </c>
@@ -1513,13 +1519,16 @@
       <c r="J1" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
@@ -1537,21 +1546,24 @@
         <v>2900</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2">
+        <v>92</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="2">
         <v>1732</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
@@ -1569,21 +1581,24 @@
         <v>11020</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="2">
+        <v>92</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="2">
         <v>1732</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>76</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
@@ -1601,24 +1616,27 @@
         <v>27840</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="2">
+        <v>92</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="2">
         <v>1732</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>77</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D5" s="2">
         <v>39192</v>
@@ -1633,21 +1651,24 @@
         <v>391920</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="2">
+        <v>92</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="2">
         <v>1732</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>78</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
@@ -1665,21 +1686,24 @@
         <v>100000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="2">
+        <v>92</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="2">
         <v>1732</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>79</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>35</v>
@@ -1697,21 +1721,24 @@
         <v>5930</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="2">
+        <v>92</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="2">
         <v>1732</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>80</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>17</v>
@@ -1729,21 +1756,24 @@
         <v>400000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="2">
+        <v>92</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="2">
         <v>1732</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>81</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>17</v>
@@ -1761,21 +1791,24 @@
         <v>109000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="2">
+        <v>92</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="2">
         <v>1732</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>82</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>17</v>
@@ -1793,21 +1826,24 @@
         <v>49590</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="2">
+        <v>92</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="2">
         <v>1732</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>83</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>17</v>
@@ -1825,21 +1861,24 @@
         <v>3620</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="2">
+        <v>92</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="2">
         <v>1732</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>84</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>17</v>
@@ -1857,21 +1896,24 @@
         <v>50000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="2">
+        <v>92</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="2">
         <v>1732</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>85</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>16</v>
@@ -1889,21 +1931,24 @@
         <v>57700</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="2">
+        <v>92</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="2">
         <v>1732</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>86</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>16</v>
@@ -1921,21 +1966,24 @@
         <v>11290</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="2">
+        <v>92</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="2">
         <v>1732</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>87</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>16</v>
@@ -1953,12 +2001,15 @@
         <v>4720</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="2">
+        <v>92</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="2">
         <v>1732</v>
       </c>
     </row>
@@ -1977,22 +2028,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>48</v>
@@ -2003,13 +2054,13 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E2" s="2">
         <v>14339.3</v>
@@ -2029,13 +2080,13 @@
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E3" s="2">
         <v>974.188</v>
@@ -2044,7 +2095,7 @@
         <v>12.62</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H3" s="2">
         <v>361463.32</v>
@@ -2065,22 +2116,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2088,22 +2139,22 @@
         <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E2" s="2">
         <v>708324</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2111,22 +2162,22 @@
         <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E3" s="2">
         <v>10000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/江惠貞_2012-04-27_財產申報表_tmpf6f41.xlsx
+++ b/legislator/property/output/normal/江惠貞_2012-04-27_財產申報表_tmpf6f41.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="121">
   <si>
     <t>土地坐落</t>
   </si>
@@ -240,6 +240,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -249,6 +252,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>台灣水泥股份有限公司</t>
   </si>
   <si>
@@ -297,7 +306,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-27</t>
+  </si>
+  <si>
+    <t>tmpf6f41</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1485,13 +1500,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>66</v>
       </c>
@@ -1522,13 +1537,22 @@
       <c r="K1" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
@@ -1546,24 +1570,33 @@
         <v>2900</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="2">
+        <v>96</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="2">
         <v>1732</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
@@ -1581,24 +1614,33 @@
         <v>11020</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="2">
+        <v>96</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="2">
         <v>1732</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N3" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>76</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
@@ -1616,27 +1658,36 @@
         <v>27840</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="2">
+        <v>96</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="2">
         <v>1732</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N4" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>77</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2">
         <v>39192</v>
@@ -1651,24 +1702,33 @@
         <v>391920</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="2">
+        <v>96</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="2">
         <v>1732</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N5" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>78</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
@@ -1686,24 +1746,33 @@
         <v>100000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="2">
+        <v>96</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="2">
         <v>1732</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N6" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>79</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>35</v>
@@ -1721,24 +1790,33 @@
         <v>5930</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="2">
+        <v>96</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="2">
         <v>1732</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N7" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>80</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>17</v>
@@ -1756,24 +1834,33 @@
         <v>400000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="2">
+        <v>96</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="2">
         <v>1732</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N8" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>81</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>17</v>
@@ -1791,24 +1878,33 @@
         <v>109000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="2">
+        <v>96</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="2">
         <v>1732</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N9" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>82</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>17</v>
@@ -1826,24 +1922,33 @@
         <v>49590</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="2">
+        <v>96</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="2">
         <v>1732</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N10" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>83</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>17</v>
@@ -1861,24 +1966,33 @@
         <v>3620</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="2">
+        <v>96</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="2">
         <v>1732</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="M11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N11" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>84</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>17</v>
@@ -1896,24 +2010,33 @@
         <v>50000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="2">
+        <v>96</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="2">
         <v>1732</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="M12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N12" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>85</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>16</v>
@@ -1931,24 +2054,33 @@
         <v>57700</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="2">
+        <v>96</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="2">
         <v>1732</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="M13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N13" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>86</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>16</v>
@@ -1966,24 +2098,33 @@
         <v>11290</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="2">
+        <v>96</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="2">
         <v>1732</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="M14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N14" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>87</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>16</v>
@@ -2001,16 +2142,25 @@
         <v>4720</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="2">
+        <v>96</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="2">
         <v>1732</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N15" s="2">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2028,22 +2178,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>48</v>
@@ -2054,13 +2204,13 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E2" s="2">
         <v>14339.3</v>
@@ -2080,13 +2230,13 @@
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E3" s="2">
         <v>974.188</v>
@@ -2095,7 +2245,7 @@
         <v>12.62</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H3" s="2">
         <v>361463.32</v>
@@ -2116,22 +2266,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2139,22 +2289,22 @@
         <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E2" s="2">
         <v>708324</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2162,22 +2312,22 @@
         <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E3" s="2">
         <v>10000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/江惠貞_2012-04-27_財產申報表_tmpf6f41.xlsx
+++ b/legislator/property/output/normal/江惠貞_2012-04-27_財產申報表_tmpf6f41.xlsx
@@ -19,9 +19,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="121">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="125">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮僑信段04790000地號</t>
+  </si>
+  <si>
+    <t>新北市板橋區重慶段06070000地號</t>
+  </si>
+  <si>
+    <t>新北市土城區永寧段02030000地號</t>
+  </si>
+  <si>
+    <t>新北市土城區永寧段02030001地號</t>
+  </si>
+  <si>
+    <t>新北市土城區永寧段02030002地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>1000000分之1998</t>
+  </si>
+  <si>
+    <t>4000分之63</t>
+  </si>
+  <si>
+    <t>70000分之735</t>
+  </si>
+  <si>
+    <t>曹永央</t>
+  </si>
+  <si>
+    <t>江惠貞</t>
+  </si>
+  <si>
+    <t>江惠頁</t>
+  </si>
+  <si>
+    <t>77年10月26日</t>
+  </si>
+  <si>
+    <t>85年10月16日</t>
+  </si>
+  <si>
+    <t>101年04月25曰</t>
+  </si>
+  <si>
+    <t>85年05月06H</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>受贈</t>
+  </si>
+  <si>
+    <t>216600(超過五年）</t>
+  </si>
+  <si>
+    <t>1000000(超過五年）</t>
+  </si>
+  <si>
+    <t>3383(超過五年）</t>
+  </si>
+  <si>
+    <t>423(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-27</t>
+  </si>
+  <si>
+    <t>tmpf6f41</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -42,85 +162,16 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>彰化縣員林鎮僑信段0479-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市板橋區重慶段0607-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市土城區永寧段0203-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市土城區永寧段0203-0001 地號</t>
-  </si>
-  <si>
-    <t>新北市土城區永寧段0203-0002 地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>1000000 分 之 1998</t>
-  </si>
-  <si>
-    <t>4000分之 63</t>
-  </si>
-  <si>
-    <t>70000分之 735</t>
-  </si>
-  <si>
-    <t>曹永央</t>
-  </si>
-  <si>
-    <t>江惠貞</t>
-  </si>
-  <si>
-    <t>江惠頁</t>
-  </si>
-  <si>
-    <t>77年10月 26日</t>
-  </si>
-  <si>
-    <t>85年10月 16日</t>
-  </si>
-  <si>
-    <t>101 年 04 月25曰</t>
-  </si>
-  <si>
-    <t>85年05月 06 H</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>受贈</t>
-  </si>
-  <si>
-    <t>216,600(超過 五年）</t>
-  </si>
-  <si>
-    <t>1,000，000(超 過五年）</t>
-  </si>
-  <si>
-    <t>3，383 (超過五 年）</t>
-  </si>
-  <si>
-    <t>423 (超過五 年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮僑信段00673-000 建號</t>
-  </si>
-  <si>
-    <t>新北市板橋區重慶段02577-000 建號</t>
-  </si>
-  <si>
-    <t>新北市土城區永寧段00881 -000 建號</t>
-  </si>
-  <si>
-    <t>新北市土城區永寧段00879-000 建號</t>
+    <t>彰化縣員林鎮僑信段00673000建號</t>
+  </si>
+  <si>
+    <t>新北市板橋區重慶段02577000建號</t>
+  </si>
+  <si>
+    <t>新北市土城區永寧段00881000建號</t>
+  </si>
+  <si>
+    <t>新北市土城區永寧段00879000建號</t>
   </si>
   <si>
     <t>2分之1</t>
@@ -129,22 +180,19 @@
     <t>江惠贞</t>
   </si>
   <si>
-    <t>77年10月 26 H</t>
-  </si>
-  <si>
-    <t>85年05月 06日</t>
-  </si>
-  <si>
-    <t>101 年 04 月25 H</t>
-  </si>
-  <si>
-    <t>113,500(超過 五年）</t>
-  </si>
-  <si>
-    <t>800，000(超過 五年）</t>
-  </si>
-  <si>
-    <t>800’000(超過 五年）</t>
+    <t>77年10月26H</t>
+  </si>
+  <si>
+    <t>85年05月06日</t>
+  </si>
+  <si>
+    <t>101年04月25H</t>
+  </si>
+  <si>
+    <t>113500(超過五年）</t>
+  </si>
+  <si>
+    <t>800000(超過五年）</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -168,16 +216,16 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>合作金庫商業銀行板橋分 行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行埔墘分 行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行後埔分 行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行土城分 行</t>
+    <t>合作金庫商業銀行板橋分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行埔墘分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行後埔分行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行土城分行</t>
   </si>
   <si>
     <t>板橋站前郵局（第7支局)</t>
@@ -195,10 +243,10 @@
     <t>第一商業銀行板橋分行</t>
   </si>
   <si>
-    <t>國泰世華商業銀行南京東 路分行</t>
-  </si>
-  <si>
-    <t>中和南勢角郵局(第7 4支 局）</t>
+    <t>國泰世華商業銀行南京東路分行</t>
+  </si>
+  <si>
+    <t>中和南勢角郵局(第74支局）</t>
   </si>
   <si>
     <t>彰化商業銀行南三重分行</t>
@@ -219,12 +267,6 @@
     <t>曹〇朋</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -237,27 +279,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>台灣水泥股份有限公司</t>
   </si>
   <si>
@@ -306,15 +327,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-27</t>
-  </si>
-  <si>
-    <t>tmpf6f41</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -333,10 +345,10 @@
     <t>曰盛日盛基金</t>
   </si>
   <si>
-    <t>德盛全球高成長 科技基金</t>
-  </si>
-  <si>
-    <t>闩盛證券投資 信託股份有限 公司</t>
+    <t>德盛全球高成長科技基金</t>
+  </si>
+  <si>
+    <t>闩盛證券投資信託股份有限公司</t>
   </si>
   <si>
     <t>永豐國際商銀</t>
@@ -366,16 +378,16 @@
     <t>借貸</t>
   </si>
   <si>
-    <t>台明賓士汽車股份有限公司 新北市三重區中山路</t>
-  </si>
-  <si>
-    <t>彰化銀行南三重分行 新北市三重區中正南路</t>
-  </si>
-  <si>
-    <t>100年02月 23日</t>
-  </si>
-  <si>
-    <t>100年12月 14日</t>
+    <t>台明賓士汽車股份有限公司新北市三重區中山路</t>
+  </si>
+  <si>
+    <t>彰化銀行南三重分行新北市三重區中正南路</t>
+  </si>
+  <si>
+    <t>100年02月23日</t>
+  </si>
+  <si>
+    <t>100年12月14日</t>
   </si>
   <si>
     <t>購車貸款</t>
@@ -740,13 +752,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -768,135 +780,261 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>58.12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1732</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>7413</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1732</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>1394.96</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2">
         <v>2467277</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1732</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>2.96</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1732</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="2">
         <v>17</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>0.37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1732</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="2">
         <v>18</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -914,25 +1052,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -940,25 +1078,25 @@
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2">
         <v>82.94</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -966,25 +1104,25 @@
         <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2">
         <v>203.25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -992,25 +1130,25 @@
         <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2">
         <v>69.06</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1018,22 +1156,22 @@
         <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2">
         <v>69.06</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H5" s="2">
         <v>132200</v>
@@ -1054,25 +1192,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1080,17 +1218,17 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2">
@@ -1102,17 +1240,17 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2">
@@ -1124,17 +1262,17 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2">
@@ -1146,17 +1284,17 @@
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2">
@@ -1168,17 +1306,17 @@
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2">
@@ -1190,17 +1328,17 @@
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2">
@@ -1212,17 +1350,17 @@
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2">
@@ -1234,17 +1372,17 @@
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2">
@@ -1256,17 +1394,17 @@
         <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2">
@@ -1278,17 +1416,17 @@
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2">
@@ -1300,17 +1438,17 @@
         <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2">
@@ -1322,17 +1460,17 @@
         <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2">
@@ -1344,17 +1482,17 @@
         <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2">
@@ -1366,17 +1504,17 @@
         <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2">
@@ -1388,17 +1526,17 @@
         <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2">
@@ -1410,17 +1548,17 @@
         <v>62</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2">
@@ -1432,17 +1570,17 @@
         <v>63</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2">
@@ -1454,16 +1592,16 @@
         <v>66</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
@@ -1476,16 +1614,16 @@
         <v>67</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
@@ -1508,43 +1646,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1552,10 +1690,10 @@
         <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2">
         <v>290</v>
@@ -1564,28 +1702,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="G2" s="2">
         <v>2900</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L2" s="2">
         <v>1732</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="N2" s="2">
         <v>74</v>
@@ -1596,10 +1734,10 @@
         <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2">
         <v>1102</v>
@@ -1608,28 +1746,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="G3" s="2">
         <v>11020</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L3" s="2">
         <v>1732</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="N3" s="2">
         <v>75</v>
@@ -1640,10 +1778,10 @@
         <v>76</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2">
         <v>2784</v>
@@ -1652,28 +1790,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="G4" s="2">
         <v>27840</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L4" s="2">
         <v>1732</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="N4" s="2">
         <v>76</v>
@@ -1684,10 +1822,10 @@
         <v>77</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D5" s="2">
         <v>39192</v>
@@ -1696,28 +1834,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="G5" s="2">
         <v>391920</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L5" s="2">
         <v>1732</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="N5" s="2">
         <v>77</v>
@@ -1728,10 +1866,10 @@
         <v>78</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2">
         <v>10000</v>
@@ -1740,28 +1878,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="G6" s="2">
         <v>100000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L6" s="2">
         <v>1732</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="N6" s="2">
         <v>78</v>
@@ -1772,10 +1910,10 @@
         <v>79</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2">
         <v>593</v>
@@ -1784,28 +1922,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="G7" s="2">
         <v>5930</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L7" s="2">
         <v>1732</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="N7" s="2">
         <v>79</v>
@@ -1816,10 +1954,10 @@
         <v>80</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2">
         <v>40000</v>
@@ -1828,28 +1966,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="G8" s="2">
         <v>400000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L8" s="2">
         <v>1732</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="N8" s="2">
         <v>80</v>
@@ -1860,10 +1998,10 @@
         <v>81</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2">
         <v>10900</v>
@@ -1872,28 +2010,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="G9" s="2">
         <v>109000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L9" s="2">
         <v>1732</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="N9" s="2">
         <v>81</v>
@@ -1904,10 +2042,10 @@
         <v>82</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2">
         <v>4959</v>
@@ -1916,28 +2054,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="G10" s="2">
         <v>49590</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L10" s="2">
         <v>1732</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="N10" s="2">
         <v>82</v>
@@ -1948,10 +2086,10 @@
         <v>83</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2">
         <v>362</v>
@@ -1960,28 +2098,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="G11" s="2">
         <v>3620</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L11" s="2">
         <v>1732</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="N11" s="2">
         <v>83</v>
@@ -1992,10 +2130,10 @@
         <v>84</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2">
         <v>5000</v>
@@ -2004,28 +2142,28 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="G12" s="2">
         <v>50000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L12" s="2">
         <v>1732</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="N12" s="2">
         <v>84</v>
@@ -2036,10 +2174,10 @@
         <v>85</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2">
         <v>5770</v>
@@ -2048,28 +2186,28 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="G13" s="2">
         <v>57700</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L13" s="2">
         <v>1732</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="N13" s="2">
         <v>85</v>
@@ -2080,10 +2218,10 @@
         <v>86</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2">
         <v>1129</v>
@@ -2092,28 +2230,28 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="G14" s="2">
         <v>11290</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L14" s="2">
         <v>1732</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="N14" s="2">
         <v>86</v>
@@ -2124,10 +2262,10 @@
         <v>87</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D15" s="2">
         <v>472</v>
@@ -2136,28 +2274,28 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="G15" s="2">
         <v>4720</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L15" s="2">
         <v>1732</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="N15" s="2">
         <v>87</v>
@@ -2178,25 +2316,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2204,13 +2342,13 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E2" s="2">
         <v>14339.3</v>
@@ -2219,7 +2357,7 @@
         <v>8.56</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="H2" s="2">
         <v>122744.41</v>
@@ -2230,13 +2368,13 @@
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E3" s="2">
         <v>974.188</v>
@@ -2245,7 +2383,7 @@
         <v>12.62</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H3" s="2">
         <v>361463.32</v>
@@ -2266,22 +2404,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2289,22 +2427,22 @@
         <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E2" s="2">
         <v>708324</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2312,22 +2450,22 @@
         <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E3" s="2">
         <v>10000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/江惠貞_2012-04-27_財產申報表_tmpf6f41.xlsx
+++ b/legislator/property/output/normal/江惠貞_2012-04-27_財產申報表_tmpf6f41.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="97">
   <si>
     <t>name</t>
   </si>
@@ -63,7 +63,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>彰化縣員林鎮僑信段04790000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>新北市板橋區重慶段06070000地號</t>
@@ -78,91 +81,70 @@
     <t>新北市土城區永寧段02030002地號</t>
   </si>
   <si>
+    <t>1000000分之1998</t>
+  </si>
+  <si>
+    <t>4000分之63</t>
+  </si>
+  <si>
+    <t>70000分之735</t>
+  </si>
+  <si>
+    <t>江惠貞</t>
+  </si>
+  <si>
+    <t>江惠頁</t>
+  </si>
+  <si>
+    <t>85年10月16日</t>
+  </si>
+  <si>
+    <t>101年04月25曰</t>
+  </si>
+  <si>
+    <t>85年05月06H</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>受贈</t>
+  </si>
+  <si>
+    <t>1000000(超過五年）</t>
+  </si>
+  <si>
+    <t>3383(超過五年）</t>
+  </si>
+  <si>
+    <t>423(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-27</t>
+  </si>
+  <si>
+    <t>tmpf6f41</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮僑信段00673000建號</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
-    <t>1000000分之1998</t>
-  </si>
-  <si>
-    <t>4000分之63</t>
-  </si>
-  <si>
-    <t>70000分之735</t>
-  </si>
-  <si>
     <t>曹永央</t>
   </si>
   <si>
-    <t>江惠貞</t>
-  </si>
-  <si>
-    <t>江惠頁</t>
-  </si>
-  <si>
-    <t>77年10月26日</t>
-  </si>
-  <si>
-    <t>85年10月16日</t>
-  </si>
-  <si>
-    <t>101年04月25曰</t>
-  </si>
-  <si>
-    <t>85年05月06H</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>受贈</t>
-  </si>
-  <si>
-    <t>216600(超過五年）</t>
-  </si>
-  <si>
-    <t>1000000(超過五年）</t>
-  </si>
-  <si>
-    <t>3383(超過五年）</t>
-  </si>
-  <si>
-    <t>423(超過五年）</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-27</t>
-  </si>
-  <si>
-    <t>tmpf6f41</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮僑信段00673000建號</t>
+    <t>77年10月26H</t>
+  </si>
+  <si>
+    <t>113500(超過五年）</t>
   </si>
   <si>
     <t>新北市板橋區重慶段02577000建號</t>
@@ -180,45 +162,24 @@
     <t>江惠贞</t>
   </si>
   <si>
-    <t>77年10月26H</t>
-  </si>
-  <si>
     <t>85年05月06日</t>
   </si>
   <si>
     <t>101年04月25H</t>
   </si>
   <si>
-    <t>113500(超過五年）</t>
-  </si>
-  <si>
     <t>800000(超過五年）</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種</t>
-  </si>
-  <si>
-    <t>類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>合作金庫商業銀行板橋分行</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>台北富邦商業銀行埔墘分行</t>
   </si>
   <si>
@@ -255,15 +216,9 @@
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
-    <t>活期存款</t>
-  </si>
-  <si>
     <t>支票存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>曹〇朋</t>
   </si>
   <si>
@@ -276,12 +231,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>台灣水泥股份有限公司</t>
-  </si>
-  <si>
     <t>聲寶股份有限公司</t>
   </si>
   <si>
@@ -327,70 +276,37 @@
     <t>stock</t>
   </si>
   <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
     <t>曰盛日盛基金</t>
   </si>
   <si>
+    <t>闩盛證券投資信託股份有限公司</t>
+  </si>
+  <si>
     <t>德盛全球高成長科技基金</t>
   </si>
   <si>
-    <t>闩盛證券投資信託股份有限公司</t>
-  </si>
-  <si>
     <t>永豐國際商銀</t>
   </si>
   <si>
     <t>美金</t>
   </si>
   <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>借貸</t>
   </si>
   <si>
     <t>台明賓士汽車股份有限公司新北市三重區中山路</t>
   </si>
   <si>
+    <t>100年02月23日</t>
+  </si>
+  <si>
+    <t>購車貸款</t>
+  </si>
+  <si>
     <t>彰化銀行南三重分行新北市三重區中正南路</t>
   </si>
   <si>
-    <t>100年02月23日</t>
-  </si>
-  <si>
     <t>100年12月14日</t>
-  </si>
-  <si>
-    <t>購車貸款</t>
   </si>
   <si>
     <t>房屋貸款</t>
@@ -752,13 +668,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -801,157 +717,181 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>58.12</v>
+        <v>7413</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M2" s="2">
         <v>1732</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.001998</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>14.811174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>7413</v>
+        <v>1394.96</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2467277</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M3" s="2">
         <v>1732</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.01575</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>21.97062</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>1394.96</v>
+        <v>2.96</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="2">
-        <v>2467277</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M4" s="2">
         <v>1732</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0105</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.03108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>2.96</v>
+        <v>0.37</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>22</v>
@@ -960,81 +900,40 @@
         <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="K5" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M5" s="2">
         <v>1732</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="2">
-        <v>1732</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O6" s="2">
-        <v>18</v>
+      <c r="P5" s="2">
+        <v>0.0105</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.003885</v>
       </c>
     </row>
   </sheetData>
@@ -1044,7 +943,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1052,128 +951,102 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1">
+        <v>82.94</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2">
-        <v>82.94</v>
+        <v>203.25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2">
-        <v>203.25</v>
+        <v>69.06</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2">
         <v>69.06</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>26</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="2">
-        <v>69.06</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="2">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2">
         <v>132200</v>
       </c>
     </row>
@@ -1184,7 +1057,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1192,444 +1065,390 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>64</v>
+        <v>23</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1">
+        <v>70765</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2">
-        <v>70765</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2">
-        <v>810</v>
-      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2">
-        <v>294722</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2">
-        <v>103688</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2">
-        <v>423041</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2">
-        <v>38</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2">
-        <v>185998</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2">
-        <v>568503</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
+        <v>58</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2">
-        <v>3433</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
+        <v>59</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2">
-        <v>183</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
+        <v>60</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2">
-        <v>3644516</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
+        <v>61</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2">
-        <v>2484</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
+        <v>62</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2">
-        <v>6068550</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
+        <v>63</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2">
-        <v>1558</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
+        <v>66</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="C18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
-        <v>80</v>
+        <v>51</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="2">
+        <v>427055</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="2">
-        <v>132</v>
+      <c r="H18" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
-        <v>427055</v>
-      </c>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1">
-        <v>67</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
+        <v>52</v>
+      </c>
+      <c r="E19" s="2">
         <v>2331247</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1638,7 +1457,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1652,16 +1471,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1687,617 +1506,573 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2">
-        <v>290</v>
+        <v>1102</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2">
-        <v>2900</v>
+        <v>11020</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L2" s="2">
         <v>1732</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N2" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2">
-        <v>1102</v>
+        <v>2784</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="G3" s="2">
-        <v>11020</v>
+        <v>27840</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L3" s="2">
         <v>1732</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N3" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="D4" s="2">
-        <v>2784</v>
+        <v>39192</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="G4" s="2">
-        <v>27840</v>
+        <v>391920</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L4" s="2">
         <v>1732</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N4" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2">
-        <v>39192</v>
+        <v>10000</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="G5" s="2">
-        <v>391920</v>
+        <v>100000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L5" s="2">
         <v>1732</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N5" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2">
-        <v>10000</v>
+        <v>593</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="G6" s="2">
-        <v>100000</v>
+        <v>5930</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L6" s="2">
         <v>1732</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N6" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2">
-        <v>593</v>
+        <v>40000</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="G7" s="2">
-        <v>5930</v>
+        <v>400000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L7" s="2">
         <v>1732</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N7" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2">
-        <v>40000</v>
+        <v>10900</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="G8" s="2">
-        <v>400000</v>
+        <v>109000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L8" s="2">
         <v>1732</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N8" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2">
-        <v>10900</v>
+        <v>4959</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="G9" s="2">
-        <v>109000</v>
+        <v>49590</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L9" s="2">
         <v>1732</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N9" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2">
-        <v>4959</v>
+        <v>362</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="G10" s="2">
-        <v>49590</v>
+        <v>3620</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L10" s="2">
         <v>1732</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N10" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2">
-        <v>362</v>
+        <v>5000</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="G11" s="2">
-        <v>3620</v>
+        <v>50000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L11" s="2">
         <v>1732</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N11" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2">
-        <v>5000</v>
+        <v>5770</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="G12" s="2">
-        <v>50000</v>
+        <v>57700</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L12" s="2">
         <v>1732</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N12" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2">
-        <v>5770</v>
+        <v>1129</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="G13" s="2">
-        <v>57700</v>
+        <v>11290</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L13" s="2">
         <v>1732</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N13" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2">
-        <v>1129</v>
+        <v>472</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="G14" s="2">
-        <v>11290</v>
+        <v>4720</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L14" s="2">
         <v>1732</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N14" s="2">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="1">
-        <v>87</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="2">
-        <v>472</v>
-      </c>
-      <c r="E15" s="2">
-        <v>10</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="2">
-        <v>4720</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" s="2">
-        <v>1732</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N15" s="2">
         <v>87</v>
       </c>
     </row>
@@ -2308,7 +2083,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2316,76 +2091,50 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
+      </c>
+      <c r="E1" s="1">
+        <v>14339.3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>8.56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
+      </c>
+      <c r="H1" s="1">
+        <v>122744.41</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2">
-        <v>14339.3</v>
+        <v>974.188</v>
       </c>
       <c r="F2" s="2">
-        <v>8.56</v>
+        <v>12.62</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H2" s="2">
-        <v>122744.41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>98</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="2">
-        <v>974.188</v>
-      </c>
-      <c r="F3" s="2">
-        <v>12.62</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H3" s="2">
         <v>361463.32</v>
       </c>
     </row>
@@ -2396,7 +2145,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2404,68 +2153,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>91</v>
+      </c>
+      <c r="E1" s="1">
+        <v>708324</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="E2" s="2">
-        <v>708324</v>
+        <v>10000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>123</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/江惠貞_2012-04-27_財產申報表_tmpf6f41.xlsx
+++ b/legislator/property/output/normal/江惠貞_2012-04-27_財產申報表_tmpf6f41.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="101">
   <si>
     <t>name</t>
   </si>
@@ -69,6 +69,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>彰化縣員林鎮僑信段04790000地號</t>
+  </si>
+  <si>
     <t>新北市板橋區重慶段06070000地號</t>
   </si>
   <si>
@@ -81,6 +84,9 @@
     <t>新北市土城區永寧段02030002地號</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
     <t>1000000分之1998</t>
   </si>
   <si>
@@ -90,12 +96,18 @@
     <t>70000分之735</t>
   </si>
   <si>
+    <t>曹永央</t>
+  </si>
+  <si>
     <t>江惠貞</t>
   </si>
   <si>
     <t>江惠頁</t>
   </si>
   <si>
+    <t>77年10月26日</t>
+  </si>
+  <si>
     <t>85年10月16日</t>
   </si>
   <si>
@@ -111,6 +123,9 @@
     <t>受贈</t>
   </si>
   <si>
+    <t>216600(超過五年）</t>
+  </si>
+  <si>
     <t>1000000(超過五年）</t>
   </si>
   <si>
@@ -135,39 +150,33 @@
     <t>彰化縣員林鎮僑信段00673000建號</t>
   </si>
   <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>曹永央</t>
+    <t>新北市板橋區重慶段02577000建號</t>
+  </si>
+  <si>
+    <t>新北市土城區永寧段00881000建號</t>
+  </si>
+  <si>
+    <t>新北市土城區永寧段00879000建號</t>
+  </si>
+  <si>
+    <t>2分之1</t>
+  </si>
+  <si>
+    <t>江惠贞</t>
   </si>
   <si>
     <t>77年10月26H</t>
   </si>
   <si>
+    <t>85年05月06日</t>
+  </si>
+  <si>
+    <t>101年04月25H</t>
+  </si>
+  <si>
     <t>113500(超過五年）</t>
   </si>
   <si>
-    <t>新北市板橋區重慶段02577000建號</t>
-  </si>
-  <si>
-    <t>新北市土城區永寧段00881000建號</t>
-  </si>
-  <si>
-    <t>新北市土城區永寧段00879000建號</t>
-  </si>
-  <si>
-    <t>2分之1</t>
-  </si>
-  <si>
-    <t>江惠贞</t>
-  </si>
-  <si>
-    <t>85年05月06日</t>
-  </si>
-  <si>
-    <t>101年04月25H</t>
-  </si>
-  <si>
     <t>800000(超過五年）</t>
   </si>
   <si>
@@ -229,6 +238,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>台灣水泥股份有限公司</t>
   </si>
   <si>
     <t>聲寶股份有限公司</t>
@@ -668,7 +680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -726,213 +738,266 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>7413</v>
+        <v>58.12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M2" s="2">
         <v>1732</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
-        <v>0.001998</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>14.811174</v>
+        <v>58.12</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>1394.96</v>
+        <v>7413</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="2">
-        <v>2467277</v>
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M3" s="2">
         <v>1732</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
-        <v>0.01575</v>
+        <v>0.001998</v>
       </c>
       <c r="Q3" s="2">
-        <v>21.97062</v>
+        <v>14.811174</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>2.96</v>
+        <v>1394.96</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2467277</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M4" s="2">
         <v>1732</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
-        <v>0.0105</v>
+        <v>0.01575</v>
       </c>
       <c r="Q4" s="2">
-        <v>0.03108</v>
+        <v>21.97062</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>0.37</v>
+        <v>2.96</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M5" s="2">
         <v>1732</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
         <v>0.0105</v>
       </c>
       <c r="Q5" s="2">
+        <v>0.03108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1732</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.0105</v>
+      </c>
+      <c r="Q6" s="2">
         <v>0.003885</v>
       </c>
     </row>
@@ -943,7 +1008,282 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:Q5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2">
+        <v>82.94</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1732</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="2">
+        <v>23</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>82.94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2">
+        <v>203.25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1732</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="2">
+        <v>24</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>203.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2">
+        <v>69.06</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1732</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="2">
+        <v>25</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>69.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="2">
+        <v>69.06</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="2">
+        <v>132200</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1732</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="2">
+        <v>26</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>34.53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -951,131 +1291,17 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1">
-        <v>82.94</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="2">
-        <v>203.25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="2">
-        <v>69.06</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>26</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="2">
-        <v>69.06</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="2">
-        <v>132200</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1">
@@ -1084,370 +1310,390 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
+        <v>53</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="2">
-        <v>427055</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E19" s="2">
-        <v>2331247</v>
+        <v>427055</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>67</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2331247</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1457,7 +1703,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1471,13 +1717,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1506,573 +1752,617 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2">
-        <v>1102</v>
+        <v>290</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G2" s="2">
-        <v>11020</v>
+        <v>2900</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" s="2">
         <v>1732</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N2" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2">
-        <v>2784</v>
+        <v>1102</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G3" s="2">
-        <v>27840</v>
+        <v>11020</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L3" s="2">
         <v>1732</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N3" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2">
-        <v>39192</v>
+        <v>2784</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G4" s="2">
-        <v>391920</v>
+        <v>27840</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L4" s="2">
         <v>1732</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N4" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="D5" s="2">
-        <v>10000</v>
+        <v>39192</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G5" s="2">
-        <v>100000</v>
+        <v>391920</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L5" s="2">
         <v>1732</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N5" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2">
-        <v>593</v>
+        <v>10000</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G6" s="2">
-        <v>5930</v>
+        <v>100000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L6" s="2">
         <v>1732</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N6" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2">
-        <v>40000</v>
+        <v>593</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G7" s="2">
-        <v>400000</v>
+        <v>5930</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L7" s="2">
         <v>1732</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N7" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2">
-        <v>10900</v>
+        <v>40000</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G8" s="2">
-        <v>109000</v>
+        <v>400000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L8" s="2">
         <v>1732</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N8" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2">
-        <v>4959</v>
+        <v>10900</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G9" s="2">
-        <v>49590</v>
+        <v>109000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L9" s="2">
         <v>1732</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N9" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2">
-        <v>362</v>
+        <v>4959</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G10" s="2">
-        <v>3620</v>
+        <v>49590</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L10" s="2">
         <v>1732</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N10" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2">
-        <v>5000</v>
+        <v>362</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G11" s="2">
-        <v>50000</v>
+        <v>3620</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L11" s="2">
         <v>1732</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N11" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2">
-        <v>5770</v>
+        <v>5000</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G12" s="2">
-        <v>57700</v>
+        <v>50000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L12" s="2">
         <v>1732</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N12" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2">
-        <v>1129</v>
+        <v>5770</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G13" s="2">
-        <v>11290</v>
+        <v>57700</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L13" s="2">
         <v>1732</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N13" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2">
-        <v>472</v>
+        <v>1129</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G14" s="2">
-        <v>4720</v>
+        <v>11290</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L14" s="2">
         <v>1732</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N14" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1">
+        <v>87</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="2">
+        <v>472</v>
+      </c>
+      <c r="E15" s="2">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="2">
+        <v>4720</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1732</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" s="2">
         <v>87</v>
       </c>
     </row>
@@ -2083,7 +2373,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2091,13 +2381,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1">
         <v>14339.3</v>
@@ -2106,7 +2396,7 @@
         <v>8.56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1">
         <v>122744.41</v>
@@ -2114,27 +2404,53 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
+        <v>97</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="2">
+        <v>14339.3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>8.56</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="2">
+        <v>122744.41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
         <v>98</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="B3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="2">
         <v>974.188</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F3" s="2">
         <v>12.62</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="G3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="2">
         <v>361463.32</v>
       </c>
     </row>
@@ -2145,7 +2461,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2153,45 +2469,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1">
         <v>708324</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>122</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="2">
+        <v>708324</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>123</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="2">
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="2">
         <v>10000000</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>96</v>
+      <c r="F3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/江惠貞_2012-04-27_財產申報表_tmpf6f41.xlsx
+++ b/legislator/property/output/normal/江惠貞_2012-04-27_財產申報表_tmpf6f41.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="102">
   <si>
     <t>name</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>800000(超過五年）</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>合作金庫商業銀行板橋分行</t>
@@ -1090,7 +1093,7 @@
         <v>51</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>39</v>
@@ -1143,7 +1146,7 @@
         <v>52</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>39</v>
@@ -1196,7 +1199,7 @@
         <v>52</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>39</v>
@@ -1249,7 +1252,7 @@
         <v>132200</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>39</v>
@@ -1291,14 +1294,14 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>26</v>
@@ -1313,15 +1316,15 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>26</v>
@@ -1333,15 +1336,15 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>47</v>
@@ -1353,15 +1356,15 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>26</v>
@@ -1373,15 +1376,15 @@
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>47</v>
@@ -1393,15 +1396,15 @@
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>26</v>
@@ -1413,15 +1416,15 @@
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>26</v>
@@ -1433,18 +1436,18 @@
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -1453,15 +1456,15 @@
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>26</v>
@@ -1473,15 +1476,15 @@
         <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>26</v>
@@ -1493,15 +1496,15 @@
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>25</v>
@@ -1513,15 +1516,15 @@
         <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>26</v>
@@ -1533,18 +1536,18 @@
         <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -1553,15 +1556,15 @@
         <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>27</v>
@@ -1573,15 +1576,15 @@
         <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>26</v>
@@ -1593,15 +1596,15 @@
         <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>25</v>
@@ -1613,15 +1616,15 @@
         <v>62</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>25</v>
@@ -1633,15 +1636,15 @@
         <v>63</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>25</v>
@@ -1653,13 +1656,13 @@
         <v>66</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E19" s="2">
         <v>427055</v>
@@ -1669,7 +1672,7 @@
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1677,13 +1680,13 @@
         <v>67</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E20" s="2">
         <v>2331247</v>
@@ -1693,7 +1696,7 @@
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1717,13 +1720,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1755,7 +1758,7 @@
         <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -1767,13 +1770,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G2" s="2">
         <v>2900</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>39</v>
@@ -1799,7 +1802,7 @@
         <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
@@ -1811,13 +1814,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G3" s="2">
         <v>11020</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>39</v>
@@ -1843,7 +1846,7 @@
         <v>76</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
@@ -1855,13 +1858,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G4" s="2">
         <v>27840</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>39</v>
@@ -1887,10 +1890,10 @@
         <v>77</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D5" s="2">
         <v>39192</v>
@@ -1899,13 +1902,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G5" s="2">
         <v>391920</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>39</v>
@@ -1931,7 +1934,7 @@
         <v>78</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
@@ -1943,13 +1946,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G6" s="2">
         <v>100000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>39</v>
@@ -1975,7 +1978,7 @@
         <v>79</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>47</v>
@@ -1987,13 +1990,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G7" s="2">
         <v>5930</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>39</v>
@@ -2019,7 +2022,7 @@
         <v>80</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>26</v>
@@ -2031,13 +2034,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G8" s="2">
         <v>400000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>39</v>
@@ -2063,7 +2066,7 @@
         <v>81</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>26</v>
@@ -2075,13 +2078,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G9" s="2">
         <v>109000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>39</v>
@@ -2107,7 +2110,7 @@
         <v>82</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>26</v>
@@ -2119,13 +2122,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G10" s="2">
         <v>49590</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>39</v>
@@ -2151,7 +2154,7 @@
         <v>83</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>26</v>
@@ -2163,13 +2166,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G11" s="2">
         <v>3620</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>39</v>
@@ -2195,7 +2198,7 @@
         <v>84</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>26</v>
@@ -2207,13 +2210,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G12" s="2">
         <v>50000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>39</v>
@@ -2239,7 +2242,7 @@
         <v>85</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>25</v>
@@ -2251,13 +2254,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G13" s="2">
         <v>57700</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>39</v>
@@ -2283,7 +2286,7 @@
         <v>86</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>25</v>
@@ -2295,13 +2298,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G14" s="2">
         <v>11290</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>39</v>
@@ -2327,7 +2330,7 @@
         <v>87</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>25</v>
@@ -2339,13 +2342,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G15" s="2">
         <v>4720</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>39</v>
@@ -2381,13 +2384,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1">
         <v>14339.3</v>
@@ -2396,7 +2399,7 @@
         <v>8.56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1">
         <v>122744.41</v>
@@ -2407,13 +2410,13 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2">
         <v>14339.3</v>
@@ -2422,7 +2425,7 @@
         <v>8.56</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2">
         <v>122744.41</v>
@@ -2433,13 +2436,13 @@
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E3" s="2">
         <v>974.188</v>
@@ -2448,7 +2451,7 @@
         <v>12.62</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H3" s="2">
         <v>361463.32</v>
@@ -2469,22 +2472,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1">
         <v>708324</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2492,22 +2495,22 @@
         <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E2" s="2">
         <v>708324</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2515,22 +2518,22 @@
         <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E3" s="2">
         <v>10000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/江惠貞_2012-04-27_財產申報表_tmpf6f41.xlsx
+++ b/legislator/property/output/normal/江惠貞_2012-04-27_財產申報表_tmpf6f41.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="105">
   <si>
     <t>name</t>
   </si>
@@ -183,64 +183,73 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>合作金庫商業銀行板橋分行</t>
   </si>
   <si>
+    <t>台北富邦商業銀行埔墘分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行後埔分行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行土城分行</t>
+  </si>
+  <si>
+    <t>板橋站前郵局（第7支局)</t>
+  </si>
+  <si>
+    <t>永豐商業銀行板新分行</t>
+  </si>
+  <si>
+    <t>台北縣板橋市農會信用部</t>
+  </si>
+  <si>
+    <t>華南商業銀行新店分行</t>
+  </si>
+  <si>
+    <t>第一商業銀行板橋分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行南京東路分行</t>
+  </si>
+  <si>
+    <t>中和南勢角郵局(第74支局）</t>
+  </si>
+  <si>
+    <t>彰化商業銀行南三重分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>支票存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>台北富邦商業銀行埔墘分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行後埔分行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行土城分行</t>
-  </si>
-  <si>
-    <t>板橋站前郵局（第7支局)</t>
-  </si>
-  <si>
-    <t>永豐商業銀行板新分行</t>
-  </si>
-  <si>
-    <t>台北縣板橋市農會信用部</t>
-  </si>
-  <si>
-    <t>華南商業銀行新店分行</t>
-  </si>
-  <si>
-    <t>第一商業銀行板橋分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行南京東路分行</t>
-  </si>
-  <si>
-    <t>中和南勢角郵局(第74支局）</t>
-  </si>
-  <si>
-    <t>彰化商業銀行南三重分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
     <t>曹〇朋</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>台灣水泥股份有限公司</t>
@@ -1286,417 +1295,827 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1">
-        <v>70765</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="2">
+        <v>70765</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1732</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="2">
+        <v>810</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1732</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2">
+        <v>294722</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1732</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1732</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1732</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2">
+        <v>103688</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1732</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="2">
+        <v>423041</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1732</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="2">
+        <v>38</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1732</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="2">
+        <v>185998</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1732</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="2">
         <v>55</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="2">
+        <v>568503</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1732</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="2">
         <v>56</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8">
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3433</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1732</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="2">
+        <v>183</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1732</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="2">
+        <v>3644516</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1732</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2484</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1732</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="2">
+        <v>6068550</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1732</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>62</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1558</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1732</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>63</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="2">
+        <v>132</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1732</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>64</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1">
-        <v>66</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="F19" s="2">
         <v>427055</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1732</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1">
+        <v>65</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1">
-        <v>67</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="F20" s="2">
         <v>2331247</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="H20" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1732</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20" s="2">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1720,13 +2139,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1755,10 +2174,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -1770,13 +2189,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G2" s="2">
         <v>2900</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>39</v>
@@ -1794,15 +2213,15 @@
         <v>41</v>
       </c>
       <c r="N2" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
@@ -1814,13 +2233,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G3" s="2">
         <v>11020</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>39</v>
@@ -1838,15 +2257,15 @@
         <v>41</v>
       </c>
       <c r="N3" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
@@ -1858,13 +2277,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G4" s="2">
         <v>27840</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>39</v>
@@ -1882,18 +2301,18 @@
         <v>41</v>
       </c>
       <c r="N4" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D5" s="2">
         <v>39192</v>
@@ -1902,13 +2321,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G5" s="2">
         <v>391920</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>39</v>
@@ -1926,15 +2345,15 @@
         <v>41</v>
       </c>
       <c r="N5" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
@@ -1946,13 +2365,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G6" s="2">
         <v>100000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>39</v>
@@ -1970,15 +2389,15 @@
         <v>41</v>
       </c>
       <c r="N6" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>47</v>
@@ -1990,13 +2409,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G7" s="2">
         <v>5930</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>39</v>
@@ -2014,15 +2433,15 @@
         <v>41</v>
       </c>
       <c r="N7" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>26</v>
@@ -2034,13 +2453,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G8" s="2">
         <v>400000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>39</v>
@@ -2058,15 +2477,15 @@
         <v>41</v>
       </c>
       <c r="N8" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>26</v>
@@ -2078,13 +2497,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G9" s="2">
         <v>109000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>39</v>
@@ -2102,15 +2521,15 @@
         <v>41</v>
       </c>
       <c r="N9" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>26</v>
@@ -2122,13 +2541,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G10" s="2">
         <v>49590</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>39</v>
@@ -2146,15 +2565,15 @@
         <v>41</v>
       </c>
       <c r="N10" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>26</v>
@@ -2166,13 +2585,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G11" s="2">
         <v>3620</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>39</v>
@@ -2190,15 +2609,15 @@
         <v>41</v>
       </c>
       <c r="N11" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>26</v>
@@ -2210,13 +2629,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G12" s="2">
         <v>50000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>39</v>
@@ -2234,15 +2653,15 @@
         <v>41</v>
       </c>
       <c r="N12" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>25</v>
@@ -2254,13 +2673,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G13" s="2">
         <v>57700</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>39</v>
@@ -2278,15 +2697,15 @@
         <v>41</v>
       </c>
       <c r="N13" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>25</v>
@@ -2298,13 +2717,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G14" s="2">
         <v>11290</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>39</v>
@@ -2322,15 +2741,15 @@
         <v>41</v>
       </c>
       <c r="N14" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>25</v>
@@ -2342,13 +2761,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G15" s="2">
         <v>4720</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>39</v>
@@ -2366,7 +2785,7 @@
         <v>41</v>
       </c>
       <c r="N15" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2384,13 +2803,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1">
         <v>14339.3</v>
@@ -2399,7 +2818,7 @@
         <v>8.56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1">
         <v>122744.41</v>
@@ -2407,16 +2826,16 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E2" s="2">
         <v>14339.3</v>
@@ -2425,7 +2844,7 @@
         <v>8.56</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="H2" s="2">
         <v>122744.41</v>
@@ -2433,16 +2852,16 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E3" s="2">
         <v>974.188</v>
@@ -2451,7 +2870,7 @@
         <v>12.62</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H3" s="2">
         <v>361463.32</v>
@@ -2472,68 +2891,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1">
         <v>708324</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E2" s="2">
         <v>708324</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E3" s="2">
         <v>10000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/江惠貞_2012-04-27_財產申報表_tmpf6f41.xlsx
+++ b/legislator/property/output/normal/江惠貞_2012-04-27_財產申報表_tmpf6f41.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="107">
   <si>
     <t>name</t>
   </si>
@@ -300,19 +300,25 @@
     <t>stock</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>曰盛日盛基金</t>
   </si>
   <si>
+    <t>德盛全球高成長科技基金</t>
+  </si>
+  <si>
     <t>闩盛證券投資信託股份有限公司</t>
   </si>
   <si>
-    <t>德盛全球高成長科技基金</t>
-  </si>
-  <si>
     <t>永豐國際商銀</t>
   </si>
   <si>
     <t>美金</t>
+  </si>
+  <si>
+    <t>fund</t>
   </si>
   <si>
     <t>借貸</t>
@@ -2795,47 +2801,68 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="1">
-        <v>14339.3</v>
-      </c>
-      <c r="F1" s="1">
-        <v>8.56</v>
+      <c r="E1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" s="1">
-        <v>122744.41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E2" s="2">
         <v>14339.3</v>
@@ -2849,8 +2876,29 @@
       <c r="H2" s="2">
         <v>122744.41</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1732</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>96</v>
       </c>
@@ -2861,7 +2909,7 @@
         <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E3" s="2">
         <v>974.188</v>
@@ -2870,10 +2918,31 @@
         <v>12.62</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H3" s="2">
         <v>361463.32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1732</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="2">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2891,22 +2960,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1">
         <v>708324</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2914,22 +2983,22 @@
         <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E2" s="2">
         <v>708324</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2937,22 +3006,22 @@
         <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E3" s="2">
         <v>10000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/江惠貞_2012-04-27_財產申報表_tmpf6f41.xlsx
+++ b/legislator/property/output/normal/江惠貞_2012-04-27_財產申報表_tmpf6f41.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="110">
   <si>
     <t>name</t>
   </si>
@@ -321,25 +321,34 @@
     <t>fund</t>
   </si>
   <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>借貸</t>
   </si>
   <si>
     <t>台明賓士汽車股份有限公司新北市三重區中山路</t>
   </si>
   <si>
+    <t>彰化銀行南三重分行新北市三重區中正南路</t>
+  </si>
+  <si>
     <t>100年02月23日</t>
   </si>
   <si>
+    <t>100年12月14日</t>
+  </si>
+  <si>
     <t>購車貸款</t>
   </si>
   <si>
-    <t>彰化銀行南三重分行新北市三重區中正南路</t>
-  </si>
-  <si>
-    <t>100年12月14日</t>
-  </si>
-  <si>
     <t>房屋貸款</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -2952,61 +2961,103 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="1">
-        <v>708324</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E2" s="2">
         <v>708324</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>107</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1732</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
@@ -3018,10 +3069,31 @@
         <v>10000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1732</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="2">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
